--- a/tests/data/output/single_sample_reports/sda_soliddist.xlsx
+++ b/tests/data/output/single_sample_reports/sda_soliddist.xlsx
@@ -441,37 +441,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>462 K</t>
+          <t>188 C</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>493 K</t>
+          <t>220 C</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>579 K</t>
+          <t>306 C</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>679 K</t>
+          <t>405 C</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>777 K</t>
+          <t>504 C</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>876 K</t>
+          <t>603 C</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>1223 K</t>
+          <t>950 C</t>
         </is>
       </c>
     </row>
